--- a/API/Model/GenerateExcel/Templates/Milestone Achieved.xlsx
+++ b/API/Model/GenerateExcel/Templates/Milestone Achieved.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GC-FaMS-API\API\Model\GenerateExcel\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6717FC6D-604E-4D80-9A8F-38EE03860200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EA4983-C341-4C94-8D7D-FC821B01F560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BFB484B-CCF6-4471-8DB9-57ECD0265C47}"/>
+    <workbookView xWindow="29625" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{9BFB484B-CCF6-4471-8DB9-57ECD0265C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -177,6 +177,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1177638</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>70190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC52D083-14FF-DC91-1ACE-2C8187D7E5B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="1870364" cy="1871281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -505,21 +560,21 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="35.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -530,7 +585,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -543,7 +598,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -554,7 +609,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -565,7 +620,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -594,7 +649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -605,7 +660,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -616,7 +671,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -627,7 +682,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -638,7 +693,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -649,7 +704,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -660,7 +715,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -671,7 +726,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -682,7 +737,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -693,7 +748,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -704,7 +759,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -715,7 +770,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -726,7 +781,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -737,7 +792,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -748,7 +803,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -759,7 +814,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -770,7 +825,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -781,7 +836,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -792,7 +847,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -803,7 +858,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -814,7 +869,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -825,7 +880,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -836,7 +891,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -847,7 +902,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -858,7 +913,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -869,7 +924,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -880,7 +935,7 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -891,7 +946,7 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -902,7 +957,7 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -913,7 +968,7 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -924,7 +979,7 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -935,7 +990,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -946,7 +1001,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -957,7 +1012,7 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -968,7 +1023,7 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -979,7 +1034,7 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -990,7 +1045,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1001,7 +1056,7 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1012,7 +1067,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1023,7 +1078,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1034,7 +1089,7 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1045,7 +1100,7 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1056,7 +1111,7 @@
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1067,7 +1122,7 @@
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -1078,7 +1133,7 @@
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -1089,7 +1144,7 @@
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -1100,7 +1155,7 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -1119,5 +1174,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="42" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>